--- a/fakturi/test-1-2021.xlsx
+++ b/fakturi/test-1-2021.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
   <si>
     <t>ФАКТУРА</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Датум на издавање:</t>
   </si>
   <si>
-    <t>18-9-2021</t>
+    <t>19-9-2021</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -64,7 +64,7 @@
     <t>kWh</t>
   </si>
   <si>
-    <t>Вкупен износ без ДДВ за ел. енергија ВТ  (4.30 ден/kWh)</t>
+    <t>Вкупен износ без ДДВ за ел. енергија ВТ  (1.00 ден/kWh)</t>
   </si>
   <si>
     <t>ден.</t>
@@ -73,22 +73,28 @@
     <t xml:space="preserve">Eлектрична енергија НТ (ниска тарифа)                                                                                                                  </t>
   </si>
   <si>
+    <t>Вкупен износ без ДДВ за ел. енергија НТ  (1.00 ден/kWh)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Потрошена електрична енергија од повластени производители на ЕЕ                                                                                                                                                            </t>
   </si>
   <si>
+    <t>1000.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">Цена на Обновлива енергија:                                                                                                                                                   </t>
   </si>
   <si>
     <t xml:space="preserve">Вкупен износ без ДДВ за обновлива енергија:                                                                                                                </t>
   </si>
   <si>
-    <t>Надомест за организирање на пазарот на ел. енергија (0.0049 мкд по kWh):</t>
+    <t>Надомест за организирање на пазарот на ел. енергија (5 мкд по kWh):</t>
   </si>
   <si>
     <t xml:space="preserve">Вкупен износ на фактурата без ДДВ (Даночна основа)                                                                                                           </t>
   </si>
   <si>
-    <t>ДДВ (18%):</t>
+    <t>ДДВ (5%):</t>
   </si>
   <si>
     <t>Вкупно за наплата:</t>
@@ -97,7 +103,7 @@
     <t>Рок за наплата:</t>
   </si>
   <si>
-    <t>28.9.2021</t>
+    <t>29.9.2021</t>
   </si>
   <si>
     <t>год.</t>
@@ -136,30 +142,30 @@
     <t>_____________________</t>
   </si>
   <si>
-    <t>1,03E+11</t>
-  </si>
-  <si>
-    <t>000000074961</t>
+    <t>Број на место на потрошувачка:</t>
+  </si>
+  <si>
+    <t>adasd</t>
   </si>
   <si>
     <t>Мерењата и отчитаните состојби се согласно добиените податоци од операторот на дистрибутивниот систем.</t>
   </si>
   <si>
-    <t xml:space="preserve">ВАСКА ЦИКЛЕВА 36 * </t>
+    <t>Адреса на место на потрошувачка:</t>
+  </si>
+  <si>
+    <t>Пресметковен период:</t>
   </si>
   <si>
     <t>2021.07.01 - 2021.07.31</t>
   </si>
   <si>
-    <t>01.07.2020 - 31.07.2020</t>
+    <t>Број на броило:</t>
   </si>
   <si>
     <t>52071695</t>
   </si>
   <si>
-    <t>69123337</t>
-  </si>
-  <si>
     <t xml:space="preserve">Почетна </t>
   </si>
   <si>
@@ -173,6 +179,45 @@
   </si>
   <si>
     <t>Количина</t>
+  </si>
+  <si>
+    <t>ВТ</t>
+  </si>
+  <si>
+    <t>1712.516</t>
+  </si>
+  <si>
+    <t>НТ</t>
+  </si>
+  <si>
+    <t>1036.199</t>
+  </si>
+  <si>
+    <t>Вкупно</t>
+  </si>
+  <si>
+    <t>2748.715</t>
+  </si>
+  <si>
+    <t>2019.06.14 - 2019.06.30</t>
+  </si>
+  <si>
+    <t>69536172</t>
+  </si>
+  <si>
+    <t>1.413</t>
+  </si>
+  <si>
+    <t>-1.413</t>
+  </si>
+  <si>
+    <t>1.212</t>
+  </si>
+  <si>
+    <t>-5000.000</t>
+  </si>
+  <si>
+    <t>-5001.413</t>
   </si>
 </sst>
 </file>
@@ -347,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -380,55 +425,70 @@
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="right" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -437,52 +497,55 @@
       <alignment horizontal="right" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -506,15 +569,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>761040</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>176040</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -555,14 +618,15 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="9.14453125"/>
   <cols>
     <col min="1" max="2" width="4.28" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="1" customWidth="1"/>
-    <col min="4" max="6" width="9.14" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.35" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.57" style="1" customWidth="1"/>
     <col min="7" max="7" width="10" style="1" customWidth="1"/>
     <col min="8" max="8" width="7.57" style="1" customWidth="1"/>
     <col min="9" max="9" width="10.85" style="1" customWidth="1"/>
@@ -645,10 +709,12 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -759,7 +825,7 @@
       <c r="H16" s="5"/>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" ht="17.35" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" ht="17.35" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>11</v>
       </c>
@@ -767,610 +833,1143 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="H17" s="12" t="s">
+      <c r="G17" s="12"/>
+      <c r="H17" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" ht="18.75" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" ht="18.75" customHeight="1" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" ht="17.35" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" ht="17.35" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="12"/>
     </row>
     <row r="20" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="14">
-        <v>107.44194521744612</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16">
+        <v>1089.491786867682</v>
+      </c>
+      <c r="K20" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="15">
-        <v>462.0003644350183</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="17">
+        <v>1089.491786867682</v>
+      </c>
+      <c r="K21" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="14">
-        <v>-1616.4912650938672</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16">
+        <v>659.2232131323183</v>
+      </c>
+      <c r="K22" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="15">
-        <v>-1616.4912650938672</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="B23" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="17">
+        <v>659.2232131323183</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="5">
-        <v>2.69</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="B24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="5">
-        <v>7.386</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="B25" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="18">
+        <v>5</v>
+      </c>
+      <c r="K25" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="15">
-        <v>4.3</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="B26" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="17">
+        <v>5000</v>
+      </c>
+      <c r="K26" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="15">
-        <v>8.5687035</v>
-      </c>
-      <c r="K27" s="6" t="s">
+      <c r="B27" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="17">
+        <v>13743.575</v>
+      </c>
+      <c r="K27" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J28" s="15">
-        <v>3508.2075648325153</v>
-      </c>
-      <c r="K28" s="6" t="s">
+      <c r="B28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="17">
+        <v>20492.29</v>
+      </c>
+      <c r="K28" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="15">
-        <v>631.4773616698527</v>
-      </c>
-      <c r="K29" s="6" t="s">
+      <c r="B29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="17">
+        <v>1024.6145000000001</v>
+      </c>
+      <c r="K29" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="17"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="19">
-        <v>4139.684926502368</v>
-      </c>
-      <c r="K31" s="20" t="s">
+      <c r="B31" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="22">
+        <v>21516.9045</v>
+      </c>
+      <c r="K31" s="23" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" ht="15" customHeight="1" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H32" s="21"/>
-      <c r="J32" s="22"/>
+    <row r="32" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="12"/>
     </row>
     <row r="33" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="K33" s="20" t="s">
+      <c r="B33" s="26" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="25"/>
-      <c r="K34" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="30"/>
+    </row>
+    <row r="35" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
     </row>
     <row r="36" ht="15" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="28"/>
+      <c r="B36" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="33"/>
     </row>
     <row r="37" ht="13.8" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="28"/>
-      <c r="L37" s="28"/>
-    </row>
-    <row r="38" ht="15" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="28"/>
-      <c r="L38" s="28"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
+    </row>
+    <row r="38" ht="13.8" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="33"/>
     </row>
     <row r="39" ht="33" customHeight="1" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="28"/>
-      <c r="L39" s="28"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="33"/>
+    </row>
+    <row r="40" ht="13.8" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
     </row>
     <row r="41" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="I41" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="J41" s="29"/>
-      <c r="K41" s="29"/>
+      <c r="B41" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
     </row>
     <row r="42" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="I42" s="29"/>
-      <c r="J42" s="29"/>
-      <c r="K42" s="29"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
     </row>
     <row r="43" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="I43" s="29"/>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
     </row>
     <row r="44" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
     </row>
     <row r="45" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23" t="s">
-        <v>31</v>
+      <c r="B45" s="31"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="46" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
     </row>
     <row r="47" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
     </row>
     <row r="48" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="28"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
     </row>
     <row r="49" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
     </row>
     <row r="50" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
     </row>
     <row r="51" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
     </row>
     <row r="52" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
     </row>
     <row r="53" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
     </row>
     <row r="54" ht="15" customHeight="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B54" s="30"/>
-      <c r="C54" s="30"/>
-      <c r="D54" s="30"/>
-      <c r="E54" s="30"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
     </row>
     <row r="55" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
-      <c r="B55" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="G55" s="33"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="34" t="s">
+      <c r="B55" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-    </row>
-    <row r="56" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C55" s="37"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="37"/>
+      <c r="F55" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="40"/>
+    </row>
+    <row r="56" ht="13.8" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="36" t="s">
+      <c r="B56" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="37"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="37"/>
+      <c r="F56" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="G56" s="36"/>
-      <c r="H56" s="36"/>
-      <c r="I56" s="34"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="36"/>
-    </row>
-    <row r="57" ht="15" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="42"/>
+    </row>
+    <row r="57" ht="13.8" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
-      <c r="B57" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="37" t="s">
+      <c r="B57" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="37"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="37"/>
+      <c r="F57" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
+      <c r="K57" s="39"/>
+      <c r="L57" s="42"/>
+    </row>
+    <row r="58" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="37"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="37"/>
+      <c r="F58" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+    </row>
+    <row r="59" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" s="47"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+    </row>
+    <row r="60" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="49">
+        <v>100368.551</v>
+      </c>
+      <c r="D60" s="49">
+        <v>102081.067</v>
+      </c>
+      <c r="E60" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="49">
+        <v>1</v>
+      </c>
+      <c r="G60" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+    </row>
+    <row r="61" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="49">
+        <v>59584.96</v>
+      </c>
+      <c r="D61" s="49">
+        <v>60621.159</v>
+      </c>
+      <c r="E61" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="F61" s="49">
+        <v>1</v>
+      </c>
+      <c r="G61" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+    </row>
+    <row r="62" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="50"/>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G62" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+    </row>
+    <row r="63" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+    </row>
+    <row r="64" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="37"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+    </row>
+    <row r="65" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="34"/>
-      <c r="J57" s="34"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="36"/>
-    </row>
-    <row r="58" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-      <c r="B58" s="32" t="s">
+      <c r="C65" s="37"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+    </row>
+    <row r="66" ht="13.8" customHeight="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
-      <c r="F58" s="35" t="s">
-        <v>39</v>
-      </c>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-    </row>
-    <row r="59" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="38"/>
-      <c r="C59" s="39" t="s">
+      <c r="C66" s="37"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="43"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="E59" s="39" t="s">
+      <c r="C67" s="37"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="37"/>
+      <c r="F67" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="45"/>
+      <c r="C68" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="39" t="s">
+      <c r="D68" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="G59" s="39" t="s">
+      <c r="E68" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" ht="15" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="41">
-        <v>100368.551</v>
-      </c>
-      <c r="C60" s="42">
-        <v>102081.067</v>
-      </c>
-      <c r="D60" s="42">
-        <v>1712.5159999999887</v>
-      </c>
-      <c r="E60" s="42">
+      <c r="F68" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C69" s="49">
+        <v>0</v>
+      </c>
+      <c r="D69" s="49">
+        <v>1.413</v>
+      </c>
+      <c r="E69" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="49">
         <v>1</v>
       </c>
-      <c r="F60" s="42">
-        <v>1712.516</v>
-      </c>
-      <c r="G60" s="42">
-        <f>E60*F60</f>
-        <v>30.0500000000029</v>
-      </c>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" ht="13.8" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="41">
-        <v>59584.96</v>
-      </c>
-      <c r="C61" s="43">
-        <v>60621.159</v>
-      </c>
-      <c r="D61" s="43">
-        <v>1036.1990000000005</v>
-      </c>
-      <c r="E61" s="42">
+      <c r="G69" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C70" s="49">
+        <v>0</v>
+      </c>
+      <c r="D70" s="49">
+        <v>1.212</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F70" s="49">
         <v>1</v>
       </c>
-      <c r="F61" s="42">
-        <v>1036.199</v>
-      </c>
-      <c r="G61" s="42">
-        <f>E61*F61</f>
-        <v>31.0599999999977</v>
-      </c>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" ht="13.8" customHeight="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1"/>
-      <c r="B62" s="44"/>
-      <c r="C62" s="45"/>
-      <c r="D62" s="45"/>
-      <c r="E62" s="45"/>
-      <c r="F62" s="42">
-        <v>2748.715</v>
-      </c>
-      <c r="G62" s="42">
-        <f>G60+G61</f>
-        <v>61.1100000000006</v>
-      </c>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
+      <c r="G70" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G71" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C74" s="37"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="37"/>
+      <c r="F74" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="37"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
+      <c r="F75" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="43"/>
+      <c r="H75" s="43"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="B76" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C76" s="37"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="37"/>
+      <c r="F76" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="B77" s="45"/>
+      <c r="C77" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D77" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E77" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G77" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="49">
+        <v>0</v>
+      </c>
+      <c r="D78" s="49">
+        <v>1.413</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="49">
+        <v>1</v>
+      </c>
+      <c r="G78" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="49">
+        <v>0</v>
+      </c>
+      <c r="D79" s="49">
+        <v>1.212</v>
+      </c>
+      <c r="E79" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F79" s="49">
+        <v>1</v>
+      </c>
+      <c r="G79" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="50"/>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G80" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="12"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C82" s="37"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="37"/>
+      <c r="F82" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="B83" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="37"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="37"/>
+      <c r="F84" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="G84" s="43"/>
+      <c r="H84" s="43"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="B85" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C85" s="37"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="37"/>
+      <c r="F85" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="46" t="s">
+        <v>42</v>
+      </c>
+      <c r="D86" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="G86" s="46" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="49">
+        <v>0</v>
+      </c>
+      <c r="D87" s="49">
+        <v>1.413</v>
+      </c>
+      <c r="E87" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="49">
+        <v>1</v>
+      </c>
+      <c r="G87" s="49" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="49">
+        <v>0</v>
+      </c>
+      <c r="D88" s="49">
+        <v>1.212</v>
+      </c>
+      <c r="E88" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="F88" s="49">
+        <v>1</v>
+      </c>
+      <c r="G88" s="49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89" s="49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+      <c r="G90" s="12"/>
     </row>
     <row r="1048522" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048523" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1428,9 +2027,10 @@
     <row r="1048575" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1048576" ht="12.8" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="66">
     <mergeCell ref="B4:F6"/>
     <mergeCell ref="G4:K6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="H7:K7"/>
     <mergeCell ref="B8:F9"/>
     <mergeCell ref="I8:K8"/>
@@ -1454,6 +2054,7 @@
     <mergeCell ref="B25:I25"/>
     <mergeCell ref="B26:I26"/>
     <mergeCell ref="B27:I27"/>
+    <mergeCell ref="B28:I28"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="B31:I31"/>
     <mergeCell ref="B33:I33"/>
@@ -1464,9 +2065,35 @@
     <mergeCell ref="F55:H55"/>
     <mergeCell ref="I55:K57"/>
     <mergeCell ref="B56:E56"/>
+    <mergeCell ref="F56:H56"/>
     <mergeCell ref="B57:E57"/>
     <mergeCell ref="F57:H57"/>
     <mergeCell ref="B58:E58"/>
+    <mergeCell ref="F58:H58"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="B75:E75"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="B76:E76"/>
+    <mergeCell ref="F76:H76"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="F82:H82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="F83:H83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:H85"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
@@ -1482,7 +2109,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.5390625"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.54296875"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
@@ -1497,7 +2124,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.5390625"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.54296875"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
